--- a/Work/简历投递.xlsx
+++ b/Work/简历投递.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljj\LearnRecord\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE24F0-3982-4C8F-A91F-F2FEFA11F3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8EEAE4-92AE-4360-B57B-5ABCB990E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>投递公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,26 @@
   </si>
   <si>
     <t>https://transsion.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arashivision.jobs.feishu.cn/campus/resume/applied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,12 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,6 +725,26 @@
         <v>32</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45557</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -713,9 +754,10 @@
     <hyperlink ref="F3" r:id="rId4" xr:uid="{9688C18D-5FEF-402B-8624-3DE549F44D2F}"/>
     <hyperlink ref="F18" r:id="rId5" xr:uid="{7CB554BA-D454-49AB-8011-4D1993EABB74}"/>
     <hyperlink ref="F19" r:id="rId6" xr:uid="{6862B64B-688C-464C-9199-153003D3551F}"/>
+    <hyperlink ref="F20" r:id="rId7" xr:uid="{00D54B3B-6EC6-4376-B681-57CDAE52065F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Work/简历投递.xlsx
+++ b/Work/简历投递.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljj\LearnRecord\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8EEAE4-92AE-4360-B57B-5ABCB990E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576A51F4-F130-492C-B38C-500C3BDD4261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>投递公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,45 @@
   </si>
   <si>
     <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/hq/44757#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端/测试/算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jieshun.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>https://sznari.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -679,14 +718,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <v>45556</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
-        <v>45556</v>
-      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -743,6 +778,57 @@
       </c>
       <c r="F20" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45559</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45559</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45559</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -755,9 +841,11 @@
     <hyperlink ref="F18" r:id="rId5" xr:uid="{7CB554BA-D454-49AB-8011-4D1993EABB74}"/>
     <hyperlink ref="F19" r:id="rId6" xr:uid="{6862B64B-688C-464C-9199-153003D3551F}"/>
     <hyperlink ref="F20" r:id="rId7" xr:uid="{00D54B3B-6EC6-4376-B681-57CDAE52065F}"/>
+    <hyperlink ref="F27" r:id="rId8" location="/candidateHome/applications" xr:uid="{4BC28249-3866-4F8F-8828-8E811625867B}"/>
+    <hyperlink ref="F29" r:id="rId9" xr:uid="{0ABAB0A8-5281-49E6-B83B-D1C5CBA6CE81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
